--- a/biology/Histoire de la zoologie et de la botanique/Jean_Lescure_(biologiste)/Jean_Lescure_(biologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Lescure_(biologiste)/Jean_Lescure_(biologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Lescure, né le 5 septembre 1932, est un herpétologiste français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1932[1], Jean Lescure est docteur en sciences naturelles à Paris en 1965, chercheur au laboratoire de zoologie reptiles et amphibiens du muséum national d'histoire naturelle de Paris, il est expert des tortues marines auprès de la CEE et président de la Société Herpétologique de France[1] de 1981 à 1987 et de 1991 à 1995[2]. C'est un spécialiste de l'herpétofaune guyanaise. Il a été membre fondateur de la Société Française de Systématique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1932, Jean Lescure est docteur en sciences naturelles à Paris en 1965, chercheur au laboratoire de zoologie reptiles et amphibiens du muséum national d'histoire naturelle de Paris, il est expert des tortues marines auprès de la CEE et président de la Société Herpétologique de France de 1981 à 1987 et de 1991 à 1995. C'est un spécialiste de l'herpétofaune guyanaise. Il a été membre fondateur de la Société Française de Systématique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rhinella lescurei Fouquet, Gaucher, Blanc &amp; Vélez-Rodriguez, 2007.</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adelophryne Hoogmoed &amp; Lescure, 1984
@@ -617,7 +635,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Michel Delsol, Jean-Marie Exbrayat, Janine Flatin et Jean Lescure, « Particularités du groupe des Batraciens Apodes », Bulletin mensuel de la Société linnéenne de Lyon, vol. 49, no 6,‎ juin 1980, p. 370-379 (ISSN 0366-1326, DOI 10.3406/linly.1980.10433, lire en ligne)
 Jean Lescure, « La naissance de l’Herpétologie », Bulletin de la Société Herpétologique de France, no 101,‎ 2002, p. 5-27 (ISSN 0754-9962)
@@ -649,7 +669,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Atlas des amphibiens de Guyane, avec Christian Marty, 2000  (ISBN 978-2856535295)
 L'étymologie des noms d'amphibiens et de reptiles d'Europe, avec Bernard Le Garff, 2006  (ISBN 978-2701141428)
